--- a/resultCharts.xlsx
+++ b/resultCharts.xlsx
@@ -1084,6 +1084,423 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All Labels Absolute Error and RMSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WordSearch Baseline Classifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$19:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sentiment RMSE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sentiment Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Event RMSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Event Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Time RMSE </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Time Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Structured Naive Bayes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$19:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sentiment RMSE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sentiment Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Event RMSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Event Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Time RMSE </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Time Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Combined Naive Bayes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$19:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sentiment RMSE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sentiment Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Event RMSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Event Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Time RMSE </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Time Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$19:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSP with constraints</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$19:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sentiment RMSE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sentiment Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Event RMSE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Event Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Time RMSE </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Time Absolute Error (1 - Accuracy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2017661112"/>
+        <c:axId val="-2017637624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2017661112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metric</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2017637624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2017637624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Proportion of Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2017661112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1175,6 +1592,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1507,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
